--- a/data/trans_bre/P13_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>4.28005732384706</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.2899511864893189</v>
+        <v>-0.2899511864893192</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1662869925399456</v>
@@ -649,7 +649,7 @@
         <v>0.7653167115737204</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.2246117533739628</v>
+        <v>-0.224611753373963</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.45988181709471</v>
+        <v>-2.60473515684546</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.209153003684035</v>
+        <v>8.045407093978501</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.2001525216777714</v>
+        <v>0.04003136842553218</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.812499850789597</v>
+        <v>-1.841758474774341</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6228249338882008</v>
+        <v>-0.6209796780523289</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.022464863198811</v>
+        <v>1.058293109226951</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.06650735303111188</v>
+        <v>-0.04977022347384647</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.8418597008979084</v>
+        <v>-0.8012222896300663</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.622916803519147</v>
+        <v>3.541621547078625</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.90649962853811</v>
+        <v>19.09350591271015</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.467592033368351</v>
+        <v>8.979989256493509</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8748173511788542</v>
+        <v>1.081888781493316</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.506637519910289</v>
+        <v>2.698405612535694</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5.351548938836162</v>
+        <v>5.274557509840496</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.504944336765066</v>
+        <v>2.48982340414593</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.19727748355413</v>
+        <v>2.713568856920082</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.9592752353048146</v>
+        <v>-1.064023644970521</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.04018649600215</v>
+        <v>2.753934450556692</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.9020233758445918</v>
+        <v>-1.097109952944902</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2593617917333579</v>
+        <v>0.4122618182901484</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1799220100984323</v>
+        <v>-0.1834568008434752</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4077730866558508</v>
+        <v>0.3669967715878631</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3014141644483994</v>
+        <v>-0.4604610315391522</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.03197958184493435</v>
+        <v>0.03653878242682237</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.552476550340261</v>
+        <v>5.007114242000394</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.09032729306693</v>
+        <v>9.947910149436707</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.591739554456725</v>
+        <v>3.444423190777473</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.962880026802568</v>
+        <v>5.914496323237432</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.381407674420929</v>
+        <v>1.610295405024417</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.211605025474844</v>
+        <v>3.30792549552549</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.506147723012594</v>
+        <v>2.31879511122892</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.126466218096954</v>
+        <v>2.203563766799129</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8358340121398509</v>
+        <v>-0.9082384413556922</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4111595750225426</v>
+        <v>0.869384349120978</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.345005115317122</v>
+        <v>-2.45124268496212</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.1369308439940299</v>
+        <v>-0.3778712392797574</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6457814342627863</v>
+        <v>-0.660446716027647</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.08780713989664475</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.004051356352782627</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.01850150061735164</v>
+        <v>-0.05531547864362341</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +890,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.112188257494044</v>
+        <v>3.077735668938298</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.009860650076232</v>
+        <v>7.220614540794615</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7098234541830363</v>
+        <v>0.4748076744482604</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.700490824537851</v>
+        <v>6.921956095232335</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>9.193413410051548</v>
+        <v>9.696792404584558</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>4.38725943333321</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>2.215750424667943</v>
-      </c>
+        <v>4.872048761154987</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>1.217708251611758</v>
+        <v>1.219756966576495</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +933,7 @@
         <v>2.662696563848208</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.206127051715104</v>
+        <v>1.206127051715103</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9298619893899068</v>
@@ -949,7 +945,7 @@
         <v>0.59171663316185</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2155037846207446</v>
+        <v>0.2155037846207444</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +956,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.9133405449224326</v>
+        <v>-0.9827857299064734</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.537134589979721</v>
+        <v>3.29037599126023</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.8203461985703088</v>
+        <v>-0.5643501684283855</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.468873071250073</v>
+        <v>-2.592062328836984</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5159770806865104</v>
+        <v>-0.6729277692837309</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6722684081570651</v>
+        <v>0.7108855218729473</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1622946883329214</v>
+        <v>-0.1312000560231968</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3238807172615524</v>
+        <v>-0.3158979462597815</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +988,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.09583632307156</v>
+        <v>3.298046201400932</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.37223025736442</v>
+        <v>9.943306218543315</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.291825122890319</v>
+        <v>6.128216624767389</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.914711162359047</v>
+        <v>4.337975997846288</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7.649974104106252</v>
+        <v>7.592676513749506</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6.534898951420199</v>
+        <v>6.60335493160139</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.106652821787346</v>
+        <v>1.924790975865621</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.035997285461194</v>
+        <v>1.074782236927134</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1033,7 @@
         <v>3.425483481472273</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.8164716370725494</v>
+        <v>0.8164716370725488</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.470861031142346</v>
@@ -1049,7 +1045,7 @@
         <v>0.9096969990421331</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2077398721932821</v>
+        <v>0.207739872193282</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1056,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.08716542150214231</v>
+        <v>0.3490627213203895</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.680063868521091</v>
+        <v>3.447134147295023</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3077418713869854</v>
+        <v>-0.7779242769326846</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.730993276870169</v>
+        <v>-1.846652765180919</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1356204066954012</v>
+        <v>-0.01689426505329589</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4806697809807744</v>
+        <v>0.6203822634387202</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.154197347513991</v>
+        <v>-0.1988238705288929</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3545789309822309</v>
+        <v>-0.3468522178223957</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1088,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.992805498906039</v>
+        <v>8.333104213826742</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.90479137076247</v>
+        <v>13.343571363142</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.035775369949553</v>
+        <v>7.933013773733273</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.316497532841871</v>
+        <v>3.470897591473428</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6.382705202224413</v>
+        <v>7.1116008616401</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>8.690057783522585</v>
+        <v>12.29983935502626</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4.093242592455328</v>
+        <v>4.253959090048515</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.42576463972669</v>
+        <v>1.43989866218217</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1133,7 @@
         <v>3.839572606642534</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3.447036692174325</v>
+        <v>3.44703669217432</v>
       </c>
       <c r="G19" s="6" t="inlineStr">
         <is>
@@ -1151,7 +1147,7 @@
         <v>0.9416944087794195</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.6488930844794907</v>
+        <v>0.6488930844794897</v>
       </c>
     </row>
     <row r="20">
@@ -1162,26 +1158,26 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7395110407026991</v>
+        <v>0.748433458486739</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.262799316634398</v>
+        <v>-1.885432265507428</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.3988540002020904</v>
+        <v>-0.2547243842948132</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.12040438060179</v>
+        <v>0.1824292958734338</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.3832570297791348</v>
+        <v>-0.3637022560818329</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1528326968020016</v>
+        <v>-0.2068902006294465</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.002453134256666756</v>
+        <v>0.009778202992086604</v>
       </c>
     </row>
     <row r="21">
@@ -1192,26 +1188,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.212229485809848</v>
+        <v>4.25580509378163</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>5.927223785810127</v>
+        <v>5.542290380061942</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8.414809477112366</v>
+        <v>8.382487461485031</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.547767529345679</v>
+        <v>6.509364187203722</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>2.030608995665801</v>
+        <v>1.995559665474692</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>3.21619017385358</v>
+        <v>3.29358288627521</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.675551955904088</v>
+        <v>1.624699312526554</v>
       </c>
     </row>
     <row r="22">
@@ -1235,7 +1231,7 @@
         <v>3.253818076611737</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2.236402504540801</v>
+        <v>2.236402504540799</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4590184260864928</v>
@@ -1247,7 +1243,7 @@
         <v>0.7865174702931838</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.3129731525235094</v>
+        <v>0.3129731525235092</v>
       </c>
     </row>
     <row r="23">
@@ -1258,28 +1254,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6614817744131991</v>
+        <v>-0.8254704824224937</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.138030565950966</v>
+        <v>0.953955779371651</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6168263065728523</v>
+        <v>0.2423754763493748</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.5157951383022897</v>
+        <v>-0.7365570316653521</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.1249641869965496</v>
+        <v>-0.163217684756863</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2829483066793241</v>
+        <v>0.1866746134478653</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07211688501840564</v>
+        <v>0.03067332804241192</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.05741950949684109</v>
+        <v>-0.08958041679873464</v>
       </c>
     </row>
     <row r="24">
@@ -1290,28 +1286,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.493575526379398</v>
+        <v>4.559856689194864</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.775363475410395</v>
+        <v>5.441524750309477</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.92958089502751</v>
+        <v>5.613345934223677</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.932528465606585</v>
+        <v>4.80627756173776</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.40203023766008</v>
+        <v>1.392157211169385</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>4.320814083913262</v>
+        <v>3.550299363438361</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.92410737466304</v>
+        <v>1.939848909835194</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.9046520273004941</v>
+        <v>0.8688592638783218</v>
       </c>
     </row>
     <row r="25">
@@ -1335,7 +1331,7 @@
         <v>0.7695426993576063</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2.284100296072347</v>
+        <v>2.284100296072348</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3179750530495937</v>
@@ -1347,7 +1343,7 @@
         <v>0.269836204358676</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.4524988702666915</v>
+        <v>0.4524988702666918</v>
       </c>
     </row>
     <row r="26">
@@ -1358,28 +1354,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.7105013749825927</v>
+        <v>-0.9013733139241854</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.57823102582876</v>
+        <v>-1.794634291316106</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.9636309434462538</v>
+        <v>-1.01043039377735</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.06736888164208479</v>
+        <v>-0.06331825567623751</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1348514135122302</v>
+        <v>-0.1731880603951784</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1634524451932348</v>
+        <v>-0.1648497486000931</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2750659553884328</v>
+        <v>-0.2891946616656565</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.001291288103831573</v>
+        <v>-0.008161868474762678</v>
       </c>
     </row>
     <row r="27">
@@ -1390,28 +1386,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.831561405537017</v>
+        <v>3.76493715842401</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>4.187120014964854</v>
+        <v>4.102960335983685</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2.79206641222933</v>
+        <v>2.719667630425644</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4.350986319674226</v>
+        <v>4.309337109475871</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.187235062482168</v>
+        <v>1.146847684041808</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.551542554827837</v>
+        <v>0.558576863823541</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.453785978777013</v>
+        <v>1.348274854902421</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.083342369765047</v>
+        <v>1.070784789205199</v>
       </c>
     </row>
     <row r="28">
@@ -1435,7 +1431,7 @@
         <v>2.063451115628804</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2.229797271044722</v>
+        <v>2.229797271044719</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5220050298301105</v>
@@ -1447,7 +1443,7 @@
         <v>0.5955102515546855</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.4266244865859347</v>
+        <v>0.426624486585934</v>
       </c>
     </row>
     <row r="29">
@@ -1458,28 +1454,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.7663677792226211</v>
+        <v>0.7826818611076947</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.456448160847164</v>
+        <v>3.446093896806405</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.043781817146162</v>
+        <v>0.9306149804723882</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.240152462128127</v>
+        <v>1.167884929247262</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2106028672074863</v>
+        <v>0.2066598898305871</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6447114556405001</v>
+        <v>0.6570231146747461</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2598441225127502</v>
+        <v>0.23358147862419</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.2087999992652616</v>
+        <v>0.201132379901188</v>
       </c>
     </row>
     <row r="30">
@@ -1490,28 +1486,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.732348887142151</v>
+        <v>2.690182069937379</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.941531458576598</v>
+        <v>5.974859623409996</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.161696657731896</v>
+        <v>3.051619240141233</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.261897536189963</v>
+        <v>3.202901845220921</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9715515318481817</v>
+        <v>0.9634496529898391</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1.483663272343014</v>
+        <v>1.474916295449766</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1.068676784959778</v>
+        <v>1.012239108022479</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.7007086458976868</v>
+        <v>0.6891754813565468</v>
       </c>
     </row>
     <row r="31">
